--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,75 +439,101 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>175929.04</v>
+        <v>76311.53</v>
+      </c>
+      <c r="C2" t="n">
+        <v>82239.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35185.81</v>
+        <v>64053.64</v>
+      </c>
+      <c r="C3" t="n">
+        <v>63857.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1741.22</v>
+        <v>29105.83</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29533.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4716.82</v>
+        <v>1741.22</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1940.65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64053.64</v>
+        <v>4716.82</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3895.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76311.53</v>
+        <v>35185.81</v>
+      </c>
+      <c r="C7" t="n">
+        <v>36293.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29105.83</v>
+        <v>175929.04</v>
+      </c>
+      <c r="C8" t="n">
+        <v>181466.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,75 +439,101 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181466.59</v>
+        <v>63857.43</v>
+      </c>
+      <c r="C2" t="n">
+        <v>63891.57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36293.32</v>
+        <v>82239.83</v>
+      </c>
+      <c r="C3" t="n">
+        <v>83732.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63857.43</v>
+        <v>29533.04</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29240.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82239.83</v>
+        <v>1940.65</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2199.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29533.04</v>
+        <v>3895.64</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4334.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1940.65</v>
+        <v>36293.32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>36679.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3895.64</v>
+        <v>181466.59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>183398.26</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -454,9 +454,7 @@
       <c r="B2" t="n">
         <v>63857.43</v>
       </c>
-      <c r="C2" t="n">
-        <v>63891.57</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -467,9 +465,7 @@
       <c r="B3" t="n">
         <v>82239.83</v>
       </c>
-      <c r="C3" t="n">
-        <v>83732.59</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -480,9 +476,7 @@
       <c r="B4" t="n">
         <v>29533.04</v>
       </c>
-      <c r="C4" t="n">
-        <v>29240.39</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -493,9 +487,7 @@
       <c r="B5" t="n">
         <v>1940.65</v>
       </c>
-      <c r="C5" t="n">
-        <v>2199.17</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -520,7 +512,7 @@
         <v>36293.32</v>
       </c>
       <c r="C7" t="n">
-        <v>36679.65</v>
+        <v>4334.54</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +525,7 @@
         <v>181466.59</v>
       </c>
       <c r="C8" t="n">
-        <v>183398.26</v>
+        <v>4334.54</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,38 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63857.43</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>63892.27</v>
+      </c>
+      <c r="C2" t="n">
+        <v>63970.72</v>
+      </c>
       <c r="D2" t="n">
-        <v>63842.81</v>
+        <v>64816.46</v>
       </c>
       <c r="E2" t="n">
-        <v>63880.42</v>
+        <v>63957.02</v>
       </c>
       <c r="F2" t="n">
-        <v>63779.85</v>
+        <v>63757.02</v>
       </c>
       <c r="G2" t="n">
-        <v>64115.26</v>
-      </c>
-      <c r="H2" t="n">
-        <v>64075.99</v>
-      </c>
-      <c r="I2" t="n">
-        <v>64152.6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>64045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>63856.07</v>
-      </c>
-      <c r="L2" t="n">
-        <v>64029</v>
-      </c>
-      <c r="M2" t="n">
-        <v>63892.27</v>
+        <v>63948.62</v>
       </c>
     </row>
     <row r="3">
@@ -543,38 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82239.83</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>100064.12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>101563.92</v>
+      </c>
       <c r="D3" t="n">
-        <v>82105.48</v>
+        <v>100720.62</v>
       </c>
       <c r="E3" t="n">
-        <v>82343.17</v>
+        <v>99990.14</v>
       </c>
       <c r="F3" t="n">
-        <v>81603.59</v>
+        <v>100082.9</v>
       </c>
       <c r="G3" t="n">
-        <v>81594.98</v>
-      </c>
-      <c r="H3" t="n">
-        <v>83182.36</v>
-      </c>
-      <c r="I3" t="n">
-        <v>83113.08</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100262.03</v>
-      </c>
-      <c r="K3" t="n">
-        <v>100987.8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>100952.97</v>
-      </c>
-      <c r="M3" t="n">
-        <v>100064.12</v>
+        <v>99768.32000000001</v>
       </c>
     </row>
     <row r="4">
@@ -584,38 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29533.04</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>28658.93</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29841.8</v>
+      </c>
       <c r="D4" t="n">
-        <v>29760.77</v>
+        <v>30575.6</v>
       </c>
       <c r="E4" t="n">
-        <v>28518.66</v>
+        <v>29425.21</v>
       </c>
       <c r="F4" t="n">
-        <v>30152.61</v>
+        <v>28859.53</v>
       </c>
       <c r="G4" t="n">
-        <v>29871.52</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29918.27</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29615.72</v>
-      </c>
-      <c r="J4" t="n">
-        <v>30029.23</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29859.77</v>
-      </c>
-      <c r="L4" t="n">
-        <v>28849.4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>28658.93</v>
+        <v>28743.11</v>
       </c>
     </row>
     <row r="5">
@@ -625,38 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1940.65</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>1857.41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1906.68</v>
+      </c>
       <c r="D5" t="n">
-        <v>2043.61</v>
+        <v>2017.04</v>
       </c>
       <c r="E5" t="n">
-        <v>2346.96</v>
+        <v>2217.6</v>
       </c>
       <c r="F5" t="n">
-        <v>2333.77</v>
+        <v>2383.08</v>
       </c>
       <c r="G5" t="n">
-        <v>2226.66</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2419.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2328.35</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2101.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1858.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1636.32</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1857.41</v>
+        <v>2399.02</v>
       </c>
     </row>
     <row r="6">
@@ -666,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3895.64</v>
+        <v>4143.05</v>
       </c>
       <c r="C6" t="n">
-        <v>4334.54</v>
+        <v>4109.51</v>
       </c>
       <c r="D6" t="n">
-        <v>4189.21</v>
+        <v>4343.56</v>
       </c>
       <c r="E6" t="n">
-        <v>4632.37</v>
+        <v>4491.9</v>
       </c>
       <c r="F6" t="n">
-        <v>4706.01</v>
+        <v>4624.51</v>
       </c>
       <c r="G6" t="n">
-        <v>4575.99</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4889.21</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4819.03</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4483.65</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4015.08</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4752.9</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4143.05</v>
+        <v>4496.22</v>
       </c>
     </row>
     <row r="7">
@@ -709,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36293.32</v>
+        <v>39723.16</v>
       </c>
       <c r="C7" t="n">
-        <v>4334.54</v>
+        <v>40278.53</v>
       </c>
       <c r="D7" t="n">
-        <v>36388.38</v>
+        <v>40494.66</v>
       </c>
       <c r="E7" t="n">
-        <v>36344.32</v>
+        <v>40016.37</v>
       </c>
       <c r="F7" t="n">
-        <v>36515.17</v>
+        <v>39941.41</v>
       </c>
       <c r="G7" t="n">
-        <v>36476.88</v>
-      </c>
-      <c r="H7" t="n">
-        <v>36897.01</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36805.76</v>
-      </c>
-      <c r="J7" t="n">
-        <v>40184.22</v>
-      </c>
-      <c r="K7" t="n">
-        <v>40115.38</v>
-      </c>
-      <c r="L7" t="n">
-        <v>40044.12</v>
-      </c>
-      <c r="M7" t="n">
-        <v>39723.16</v>
+        <v>39871.06</v>
       </c>
     </row>
     <row r="8">
@@ -752,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>181466.59</v>
+        <v>198615.78</v>
       </c>
       <c r="C8" t="n">
-        <v>4334.54</v>
+        <v>201392.63</v>
       </c>
       <c r="D8" t="n">
-        <v>181941.88</v>
+        <v>202473.28</v>
       </c>
       <c r="E8" t="n">
-        <v>181721.58</v>
+        <v>200081.87</v>
       </c>
       <c r="F8" t="n">
-        <v>182575.83</v>
+        <v>199707.04</v>
       </c>
       <c r="G8" t="n">
-        <v>182384.41</v>
-      </c>
-      <c r="H8" t="n">
-        <v>184485.03</v>
-      </c>
-      <c r="I8" t="n">
-        <v>184028.78</v>
-      </c>
-      <c r="J8" t="n">
-        <v>200921.11</v>
-      </c>
-      <c r="K8" t="n">
-        <v>200576.92</v>
-      </c>
-      <c r="L8" t="n">
-        <v>200220.59</v>
-      </c>
-      <c r="M8" t="n">
-        <v>198615.78</v>
+        <v>199355.29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,38 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>63857.43</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>63842.81</v>
+      </c>
+      <c r="E2" t="n">
+        <v>63880.42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>63779.85</v>
+      </c>
+      <c r="G2" t="n">
+        <v>64115.26</v>
+      </c>
+      <c r="H2" t="n">
+        <v>64075.99</v>
+      </c>
+      <c r="I2" t="n">
+        <v>64152.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>64045</v>
+      </c>
+      <c r="K2" t="n">
+        <v>63856.07</v>
+      </c>
+      <c r="L2" t="n">
+        <v>64029</v>
+      </c>
+      <c r="M2" t="n">
         <v>63892.27</v>
-      </c>
-      <c r="C2" t="n">
-        <v>63970.72</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64816.46</v>
-      </c>
-      <c r="E2" t="n">
-        <v>63957.02</v>
-      </c>
-      <c r="F2" t="n">
-        <v>63757.02</v>
-      </c>
-      <c r="G2" t="n">
-        <v>63948.62</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +543,38 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>82239.83</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>82105.48</v>
+      </c>
+      <c r="E3" t="n">
+        <v>82343.17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>81603.59</v>
+      </c>
+      <c r="G3" t="n">
+        <v>81594.98</v>
+      </c>
+      <c r="H3" t="n">
+        <v>83182.36</v>
+      </c>
+      <c r="I3" t="n">
+        <v>83113.08</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100262.03</v>
+      </c>
+      <c r="K3" t="n">
+        <v>100987.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>100952.97</v>
+      </c>
+      <c r="M3" t="n">
         <v>100064.12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>101563.92</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100720.62</v>
-      </c>
-      <c r="E3" t="n">
-        <v>99990.14</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100082.9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>99768.32000000001</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +584,38 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>29533.04</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>29760.77</v>
+      </c>
+      <c r="E4" t="n">
+        <v>28518.66</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30152.61</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29871.52</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29918.27</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29615.72</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30029.23</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29859.77</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28849.4</v>
+      </c>
+      <c r="M4" t="n">
         <v>28658.93</v>
-      </c>
-      <c r="C4" t="n">
-        <v>29841.8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30575.6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>29425.21</v>
-      </c>
-      <c r="F4" t="n">
-        <v>28859.53</v>
-      </c>
-      <c r="G4" t="n">
-        <v>28743.11</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +625,38 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>1940.65</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>2043.61</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2346.96</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2333.77</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2226.66</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2419.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2328.35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2101.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1858.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1636.32</v>
+      </c>
+      <c r="M5" t="n">
         <v>1857.41</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1906.68</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2017.04</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2217.6</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2383.08</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2399.02</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +666,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>3895.64</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4334.54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4189.21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4632.37</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4706.01</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4575.99</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4889.21</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4819.03</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4483.65</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4015.08</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4752.9</v>
+      </c>
+      <c r="M6" t="n">
         <v>4143.05</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4109.51</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4343.56</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4491.9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4624.51</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4496.22</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +709,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>36293.32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4334.54</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36388.38</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36344.32</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36515.17</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36476.88</v>
+      </c>
+      <c r="H7" t="n">
+        <v>36897.01</v>
+      </c>
+      <c r="I7" t="n">
+        <v>36805.76</v>
+      </c>
+      <c r="J7" t="n">
+        <v>40184.22</v>
+      </c>
+      <c r="K7" t="n">
+        <v>40115.38</v>
+      </c>
+      <c r="L7" t="n">
+        <v>40044.12</v>
+      </c>
+      <c r="M7" t="n">
         <v>39723.16</v>
-      </c>
-      <c r="C7" t="n">
-        <v>40278.53</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40494.66</v>
-      </c>
-      <c r="E7" t="n">
-        <v>40016.37</v>
-      </c>
-      <c r="F7" t="n">
-        <v>39941.41</v>
-      </c>
-      <c r="G7" t="n">
-        <v>39871.06</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +752,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>181466.59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4334.54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>181941.88</v>
+      </c>
+      <c r="E8" t="n">
+        <v>181721.58</v>
+      </c>
+      <c r="F8" t="n">
+        <v>182575.83</v>
+      </c>
+      <c r="G8" t="n">
+        <v>182384.41</v>
+      </c>
+      <c r="H8" t="n">
+        <v>184485.03</v>
+      </c>
+      <c r="I8" t="n">
+        <v>184028.78</v>
+      </c>
+      <c r="J8" t="n">
+        <v>200921.11</v>
+      </c>
+      <c r="K8" t="n">
+        <v>200576.92</v>
+      </c>
+      <c r="L8" t="n">
+        <v>200220.59</v>
+      </c>
+      <c r="M8" t="n">
         <v>198615.78</v>
-      </c>
-      <c r="C8" t="n">
-        <v>201392.63</v>
-      </c>
-      <c r="D8" t="n">
-        <v>202473.28</v>
-      </c>
-      <c r="E8" t="n">
-        <v>200081.87</v>
-      </c>
-      <c r="F8" t="n">
-        <v>199707.04</v>
-      </c>
-      <c r="G8" t="n">
-        <v>199355.29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,127 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>09-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,38 +567,79 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63857.43</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>63892.27</v>
+      </c>
+      <c r="C2" t="n">
+        <v>63970.72</v>
+      </c>
       <c r="D2" t="n">
-        <v>63842.81</v>
+        <v>64816.46</v>
       </c>
       <c r="E2" t="n">
-        <v>63880.42</v>
+        <v>63957.02</v>
       </c>
       <c r="F2" t="n">
-        <v>63779.85</v>
+        <v>63757.02</v>
       </c>
       <c r="G2" t="n">
-        <v>64115.26</v>
+        <v>63948.62</v>
       </c>
       <c r="H2" t="n">
-        <v>64075.99</v>
+        <v>64167.43</v>
       </c>
       <c r="I2" t="n">
-        <v>64152.6</v>
+        <v>64190.85</v>
       </c>
       <c r="J2" t="n">
-        <v>64045</v>
+        <v>63974.67</v>
       </c>
       <c r="K2" t="n">
-        <v>63856.07</v>
+        <v>63974.14</v>
       </c>
       <c r="L2" t="n">
-        <v>64029</v>
+        <v>64031.73</v>
       </c>
       <c r="M2" t="n">
-        <v>63892.27</v>
+        <v>64034.98</v>
+      </c>
+      <c r="N2" t="n">
+        <v>64172.6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>63818.62</v>
+      </c>
+      <c r="P2" t="n">
+        <v>63847.09</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>63846.24</v>
+      </c>
+      <c r="R2" t="n">
+        <v>63988.79</v>
+      </c>
+      <c r="S2" t="n">
+        <v>63951.98</v>
+      </c>
+      <c r="T2" t="n">
+        <v>63852.62</v>
+      </c>
+      <c r="U2" t="n">
+        <v>64103.54</v>
+      </c>
+      <c r="V2" t="n">
+        <v>63745.93</v>
+      </c>
+      <c r="W2" t="n">
+        <v>63765.99</v>
+      </c>
+      <c r="X2" t="n">
+        <v>64149.18</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>64098.85</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>63896.31</v>
       </c>
     </row>
     <row r="3">
@@ -543,38 +649,79 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82239.83</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>100064.12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>101563.92</v>
+      </c>
       <c r="D3" t="n">
-        <v>82105.48</v>
+        <v>100720.62</v>
       </c>
       <c r="E3" t="n">
-        <v>82343.17</v>
+        <v>99990.14</v>
       </c>
       <c r="F3" t="n">
-        <v>81603.59</v>
+        <v>100082.9</v>
       </c>
       <c r="G3" t="n">
-        <v>81594.98</v>
+        <v>99768.32000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>83182.36</v>
+        <v>101396.35</v>
       </c>
       <c r="I3" t="n">
-        <v>83113.08</v>
+        <v>99956.42</v>
       </c>
       <c r="J3" t="n">
-        <v>100262.03</v>
+        <v>100771.74</v>
       </c>
       <c r="K3" t="n">
-        <v>100987.8</v>
+        <v>100339.99</v>
       </c>
       <c r="L3" t="n">
-        <v>100952.97</v>
+        <v>100054.47</v>
       </c>
       <c r="M3" t="n">
-        <v>100064.12</v>
+        <v>100963.52</v>
+      </c>
+      <c r="N3" t="n">
+        <v>101098.64</v>
+      </c>
+      <c r="O3" t="n">
+        <v>101175.98</v>
+      </c>
+      <c r="P3" t="n">
+        <v>100111.54</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>100346.53</v>
+      </c>
+      <c r="R3" t="n">
+        <v>100156.72</v>
+      </c>
+      <c r="S3" t="n">
+        <v>101057.25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>100660.49</v>
+      </c>
+      <c r="U3" t="n">
+        <v>99433.52</v>
+      </c>
+      <c r="V3" t="n">
+        <v>101075.51</v>
+      </c>
+      <c r="W3" t="n">
+        <v>100174.42</v>
+      </c>
+      <c r="X3" t="n">
+        <v>100649.62</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>99541.92</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>99828.06</v>
       </c>
     </row>
     <row r="4">
@@ -584,38 +731,79 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29533.04</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>28658.93</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29841.8</v>
+      </c>
       <c r="D4" t="n">
-        <v>29760.77</v>
+        <v>30575.6</v>
       </c>
       <c r="E4" t="n">
-        <v>28518.66</v>
+        <v>29425.21</v>
       </c>
       <c r="F4" t="n">
-        <v>30152.61</v>
+        <v>28859.53</v>
       </c>
       <c r="G4" t="n">
-        <v>29871.52</v>
+        <v>28743.11</v>
       </c>
       <c r="H4" t="n">
-        <v>29918.27</v>
+        <v>28606.18</v>
       </c>
       <c r="I4" t="n">
-        <v>29615.72</v>
+        <v>29040.4</v>
       </c>
       <c r="J4" t="n">
-        <v>30029.23</v>
+        <v>30130.1</v>
       </c>
       <c r="K4" t="n">
-        <v>29859.77</v>
+        <v>28443.1</v>
       </c>
       <c r="L4" t="n">
-        <v>28849.4</v>
+        <v>29953.03</v>
       </c>
       <c r="M4" t="n">
-        <v>28658.93</v>
+        <v>30325.36</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29461.46</v>
+      </c>
+      <c r="O4" t="n">
+        <v>28946.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>29288.22</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>30033.56</v>
+      </c>
+      <c r="R4" t="n">
+        <v>29970.72</v>
+      </c>
+      <c r="S4" t="n">
+        <v>29515.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>29141.85</v>
+      </c>
+      <c r="U4" t="n">
+        <v>29806.64</v>
+      </c>
+      <c r="V4" t="n">
+        <v>30144.43</v>
+      </c>
+      <c r="W4" t="n">
+        <v>28843.12</v>
+      </c>
+      <c r="X4" t="n">
+        <v>28735.56</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>29296.66</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>29907.32</v>
       </c>
     </row>
     <row r="5">
@@ -625,38 +813,79 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1940.65</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>1857.41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1906.68</v>
+      </c>
       <c r="D5" t="n">
-        <v>2043.61</v>
+        <v>2017.04</v>
       </c>
       <c r="E5" t="n">
-        <v>2346.96</v>
+        <v>2217.6</v>
       </c>
       <c r="F5" t="n">
-        <v>2333.77</v>
+        <v>2383.08</v>
       </c>
       <c r="G5" t="n">
-        <v>2226.66</v>
+        <v>2399.02</v>
       </c>
       <c r="H5" t="n">
-        <v>2419.2</v>
+        <v>2681.79</v>
       </c>
       <c r="I5" t="n">
-        <v>2328.35</v>
+        <v>2674.62</v>
       </c>
       <c r="J5" t="n">
-        <v>2101.2</v>
+        <v>2631.18</v>
       </c>
       <c r="K5" t="n">
-        <v>1858.2</v>
+        <v>2738.98</v>
       </c>
       <c r="L5" t="n">
-        <v>1636.32</v>
+        <v>2861.26</v>
       </c>
       <c r="M5" t="n">
-        <v>1857.41</v>
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -666,40 +895,79 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3895.64</v>
+        <v>4143.05</v>
       </c>
       <c r="C6" t="n">
-        <v>4334.54</v>
+        <v>4109.51</v>
       </c>
       <c r="D6" t="n">
-        <v>4189.21</v>
+        <v>4343.56</v>
       </c>
       <c r="E6" t="n">
-        <v>4632.37</v>
+        <v>4491.9</v>
       </c>
       <c r="F6" t="n">
-        <v>4706.01</v>
+        <v>4624.51</v>
       </c>
       <c r="G6" t="n">
-        <v>4575.99</v>
+        <v>4496.22</v>
       </c>
       <c r="H6" t="n">
-        <v>4889.21</v>
+        <v>4997.78</v>
       </c>
       <c r="I6" t="n">
-        <v>4819.03</v>
+        <v>4885.51</v>
       </c>
       <c r="J6" t="n">
-        <v>4483.65</v>
+        <v>4715.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4015.08</v>
+        <v>4882.18</v>
       </c>
       <c r="L6" t="n">
-        <v>4752.9</v>
+        <v>4864.85</v>
       </c>
       <c r="M6" t="n">
-        <v>4143.05</v>
+        <v>5204.67</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5396.47</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5426</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3873.83</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4243.76</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4371.72</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3937.76</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3700.29</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4041.69</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4398.44</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4446.44</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5352.37</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3891.42</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3956.19</v>
       </c>
     </row>
     <row r="7">
@@ -709,40 +977,79 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36293.32</v>
+        <v>39723.16</v>
       </c>
       <c r="C7" t="n">
-        <v>4334.54</v>
+        <v>40278.53</v>
       </c>
       <c r="D7" t="n">
-        <v>36388.38</v>
+        <v>40494.66</v>
       </c>
       <c r="E7" t="n">
-        <v>36344.32</v>
+        <v>40016.37</v>
       </c>
       <c r="F7" t="n">
-        <v>36515.17</v>
+        <v>39941.41</v>
       </c>
       <c r="G7" t="n">
-        <v>36476.88</v>
+        <v>39871.06</v>
       </c>
       <c r="H7" t="n">
-        <v>36897.01</v>
+        <v>40369.91</v>
       </c>
       <c r="I7" t="n">
-        <v>36805.76</v>
+        <v>40149.56</v>
       </c>
       <c r="J7" t="n">
-        <v>40184.22</v>
+        <v>40444.7</v>
       </c>
       <c r="K7" t="n">
-        <v>40115.38</v>
+        <v>40075.68</v>
       </c>
       <c r="L7" t="n">
-        <v>40044.12</v>
+        <v>40353.07</v>
       </c>
       <c r="M7" t="n">
-        <v>39723.16</v>
+        <v>40105.71</v>
+      </c>
+      <c r="N7" t="n">
+        <v>40025.83</v>
+      </c>
+      <c r="O7" t="n">
+        <v>39873.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>39424.14</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>39694.02</v>
+      </c>
+      <c r="R7" t="n">
+        <v>39697.59</v>
+      </c>
+      <c r="S7" t="n">
+        <v>39692.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>39471.05</v>
+      </c>
+      <c r="U7" t="n">
+        <v>39477.08</v>
+      </c>
+      <c r="V7" t="n">
+        <v>39872.86</v>
+      </c>
+      <c r="W7" t="n">
+        <v>39445.99</v>
+      </c>
+      <c r="X7" t="n">
+        <v>39777.35</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>39365.77</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>39517.58</v>
       </c>
     </row>
     <row r="8">
@@ -752,40 +1059,79 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>181466.59</v>
+        <v>198615.78</v>
       </c>
       <c r="C8" t="n">
-        <v>4334.54</v>
+        <v>201392.63</v>
       </c>
       <c r="D8" t="n">
-        <v>181941.88</v>
+        <v>202473.28</v>
       </c>
       <c r="E8" t="n">
-        <v>181721.58</v>
+        <v>200081.87</v>
       </c>
       <c r="F8" t="n">
-        <v>182575.83</v>
+        <v>199707.04</v>
       </c>
       <c r="G8" t="n">
-        <v>182384.41</v>
+        <v>199355.29</v>
       </c>
       <c r="H8" t="n">
-        <v>184485.03</v>
+        <v>201849.53</v>
       </c>
       <c r="I8" t="n">
-        <v>184028.78</v>
+        <v>200747.8</v>
       </c>
       <c r="J8" t="n">
-        <v>200921.11</v>
+        <v>202223.49</v>
       </c>
       <c r="K8" t="n">
-        <v>200576.92</v>
+        <v>200378.39</v>
       </c>
       <c r="L8" t="n">
-        <v>200220.59</v>
+        <v>201765.34</v>
       </c>
       <c r="M8" t="n">
-        <v>198615.78</v>
+        <v>200528.53</v>
+      </c>
+      <c r="N8" t="n">
+        <v>200129.17</v>
+      </c>
+      <c r="O8" t="n">
+        <v>199367</v>
+      </c>
+      <c r="P8" t="n">
+        <v>197120.68</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>198470.09</v>
+      </c>
+      <c r="R8" t="n">
+        <v>198487.95</v>
+      </c>
+      <c r="S8" t="n">
+        <v>198462.49</v>
+      </c>
+      <c r="T8" t="n">
+        <v>197355.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>197385.39</v>
+      </c>
+      <c r="V8" t="n">
+        <v>199364.31</v>
+      </c>
+      <c r="W8" t="n">
+        <v>197229.97</v>
+      </c>
+      <c r="X8" t="n">
+        <v>198886.73</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>196828.85</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>197587.88</v>
       </c>
     </row>
   </sheetData>
